--- a/biology/Botanique/Forêt_sacrée_Bamèzoun/Forêt_sacrée_Bamèzoun.xlsx
+++ b/biology/Botanique/Forêt_sacrée_Bamèzoun/Forêt_sacrée_Bamèzoun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_sacr%C3%A9e_Bam%C3%A8zoun</t>
+          <t>Forêt_sacrée_Bamèzoun</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt sarée Bamèzoun est un îlot forestier, situé dans la commune des Aguégués, dans le département de l'Ouémé, au sud du Bénin.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_sacr%C3%A9e_Bam%C3%A8zoun</t>
+          <t>Forêt_sacrée_Bamèzoun</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt sacrée Bamèzoun se trouve dans le village de Bembé, arrondissement d'Avagbodji, commune des Aguégués. Située à proximité du fleuve Ouémé, elle s'étend sur une superficie de 15 Ha[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt sacrée Bamèzoun se trouve dans le village de Bembé, arrondissement d'Avagbodji, commune des Aguégués. Située à proximité du fleuve Ouémé, elle s'étend sur une superficie de 15 Ha.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_sacr%C3%A9e_Bam%C3%A8zoun</t>
+          <t>Forêt_sacrée_Bamèzoun</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La genèse de cette forêt, remonte aux temps de Yahassa, ancêtre des Ouéménou, qui a fui la localité Aga pendant la guerre tribale pour s'installer dans la forêt, où il crée un cadre de vie. C'est devenu un espace sacré car c'est le lieu d'intronisation, et d'inhumation des rois wémenou[2]. Bamèzoun signifie "forêt dans le marais"[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La genèse de cette forêt, remonte aux temps de Yahassa, ancêtre des Ouéménou, qui a fui la localité Aga pendant la guerre tribale pour s'installer dans la forêt, où il crée un cadre de vie. C'est devenu un espace sacré car c'est le lieu d'intronisation, et d'inhumation des rois wémenou. Bamèzoun signifie "forêt dans le marais".
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_sacr%C3%A9e_Bam%C3%A8zoun</t>
+          <t>Forêt_sacrée_Bamèzoun</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flore
-La Forêt sacrée de Bamèzoun est une forêt dense semi-décidue bien circonscrite, relativement conservée. 85 espèces végétales y ont été dénombrées, dont: Ceiba pentadra, Antiaris toxicaria, Milicia exelsa, Cola grandifoliafolia[2].
-Faune
-La forêt sacrée Bamèzoun abrite 67 espèces d’oiseaux (32 familles) dont 4 espèces de mammifères rares, quatre espèces de serpent et quatre types d'escargot. A l’intérieur de la forêt se trouvent des sites sacrés et cimetière[4].
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Forêt sacrée de Bamèzoun est une forêt dense semi-décidue bien circonscrite, relativement conservée. 85 espèces végétales y ont été dénombrées, dont: Ceiba pentadra, Antiaris toxicaria, Milicia exelsa, Cola grandifoliafolia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forêt_sacrée_Bamèzoun</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_sacr%C3%A9e_Bam%C3%A8zoun</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biodiversité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt sacrée Bamèzoun abrite 67 espèces d’oiseaux (32 familles) dont 4 espèces de mammifères rares, quatre espèces de serpent et quatre types d'escargot. A l’intérieur de la forêt se trouvent des sites sacrés et cimetière.
 </t>
         </is>
       </c>
